--- a/data/trans_camb/P1429-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1429-Edad-trans_camb.xlsx
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.788693111365432</v>
+        <v>-1.756958888609515</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.764770481245646</v>
+        <v>-1.838355433177105</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.9796107695839791</v>
+        <v>-1.081779475006643</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.9941536216966217</v>
+        <v>-0.9541402364978379</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.8589933640623456</v>
+        <v>-0.9500662922347953</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.3781554165174926</v>
+        <v>-0.3769678603569205</v>
       </c>
     </row>
     <row r="6">
@@ -708,25 +708,25 @@
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>3.784322622718991</v>
+        <v>3.803612754750899</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.1948066885675633</v>
+        <v>-0.1955462432753904</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-0.1959517425843479</v>
+        <v>-0.1990952587789524</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.155656498675943</v>
+        <v>3.162045915726336</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-0.1817887754399568</v>
+        <v>-0.0941919757990827</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-0.09387555435909259</v>
+        <v>-0.09533208739675259</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.627879564770546</v>
+        <v>2.698489636501393</v>
       </c>
     </row>
     <row r="7">
@@ -843,31 +843,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.546010793938331</v>
+        <v>-1.704278367068545</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.634168924217818</v>
+        <v>-1.562857456086476</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.537067820297166</v>
+        <v>-1.439345466203836</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.3369525381186002</v>
+        <v>-0.3206569974710344</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.10751601046969</v>
+        <v>-1.189984485436745</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.131438300236324</v>
+        <v>-1.096346786406746</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.6448721173530574</v>
+        <v>-0.6296054151578953</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.035722092986331</v>
+        <v>-1.014059275312945</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.9976329397358024</v>
+        <v>-1.00082314378923</v>
       </c>
     </row>
     <row r="12">
@@ -878,16 +878,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.137002210418854</v>
+        <v>-0.134424905097245</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.137117281322488</v>
+        <v>-0.1364270179277513</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.1360064117770081</v>
+        <v>-0.1355645818231589</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.651999374590664</v>
+        <v>1.744578364259662</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4001112135799917</v>
+        <v>0.4404386518227265</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.1450677016010249</v>
+        <v>-0.1427369085156333</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-0.1459607143475659</v>
+        <v>-0.1537267321404177</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +973,7 @@
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>2.921703887099637</v>
+        <v>6.711697823552115</v>
       </c>
       <c r="J15" s="6" t="inlineStr"/>
       <c r="K15" s="6" t="inlineStr"/>
@@ -1005,7 +1005,7 @@
         <v>-0.1870789807066195</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-0.4666380342176205</v>
+        <v>-0.4666380342176203</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-0.413212794912892</v>
@@ -1025,31 +1025,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.172064909172356</v>
+        <v>-1.35211848483349</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.001449617270272</v>
+        <v>-0.8813524555622242</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.6137244440437287</v>
+        <v>-0.5264714156067819</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.394584994548996</v>
+        <v>-1.377054060455043</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.126886722347739</v>
+        <v>-1.078327319776913</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.46258178583891</v>
+        <v>-1.313492922410391</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.9611396037593932</v>
+        <v>-0.9474453465696574</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.7546009139920052</v>
+        <v>-0.7696622190276592</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.7152807492895547</v>
+        <v>-0.7228180163167391</v>
       </c>
     </row>
     <row r="18">
@@ -1063,28 +1063,28 @@
         <v>0</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2398722613136255</v>
+        <v>0.2394249211864374</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7634227764456375</v>
+        <v>0.7545464081439556</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.13239205745974</v>
+        <v>0.1217125543971352</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5707641064454362</v>
+        <v>0.6903890988999561</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.09960661133357376</v>
+        <v>0.1852945311927812</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-0.03207006160056247</v>
+        <v>-0.00813969315758133</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2553560156300407</v>
+        <v>0.2602152955746014</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2912608393128522</v>
+        <v>0.2798984087300174</v>
       </c>
     </row>
     <row r="19">
@@ -1110,7 +1110,7 @@
         <v>-0.2480775854675582</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.6187891145161613</v>
+        <v>-0.618789114516161</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.7484523242217748</v>
@@ -1136,17 +1136,19 @@
         <v>-1</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.918214068192453</v>
-      </c>
-      <c r="H20" s="6" t="inlineStr"/>
+        <v>-0.8649443588619926</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="I20" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.8542584329091567</v>
+        <v>-0.8585852285793935</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.8139650808552875</v>
+        <v>-0.8409915268133535</v>
       </c>
     </row>
     <row r="21">
@@ -1160,20 +1162,22 @@
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="n">
-        <v>1.830766735164861</v>
+        <v>2.691141922408323</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.866252290169395</v>
-      </c>
-      <c r="H21" s="6" t="inlineStr"/>
+        <v>2.987394783421295</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>1.353142462631583</v>
+      </c>
       <c r="I21" s="6" t="n">
-        <v>0.700380537365318</v>
+        <v>0.7104042076555895</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.211212099119756</v>
+        <v>1.448311427971841</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.778561906218752</v>
+        <v>1.6292188309072</v>
       </c>
     </row>
     <row r="22">
@@ -1203,7 +1207,7 @@
         <v>-1.622469513495096</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-1.12398097257908</v>
+        <v>-1.123980972579081</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-0.3486833466925257</v>
@@ -1223,31 +1227,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.8839136734767508</v>
+        <v>-0.8965520834344132</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.7106989901912313</v>
+        <v>-0.7119270774574069</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.658892650698111</v>
+        <v>-0.7038437240440903</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.373916353191814</v>
+        <v>-2.52144349478835</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.475019329877079</v>
+        <v>-3.430057667314311</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.794702747993911</v>
+        <v>-2.759563748825669</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.418623433360368</v>
+        <v>-1.318414006817641</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.693702919121997</v>
+        <v>-1.767941325575664</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.477373198830226</v>
+        <v>-1.483139785302185</v>
       </c>
     </row>
     <row r="24">
@@ -1258,31 +1262,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3215381475478822</v>
+        <v>0.3099287415384522</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5267367247164537</v>
+        <v>0.6803354864187814</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7153945897569556</v>
+        <v>0.6616295845978361</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.561801012379812</v>
+        <v>1.306194064165951</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.06536827508028335</v>
+        <v>-0.04892718162828803</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3714825552320786</v>
+        <v>0.3077633461764731</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.547902797593854</v>
+        <v>0.6606137282805102</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.07156039408570886</v>
+        <v>0.09236870447006174</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2411116988535687</v>
+        <v>0.3096215385915226</v>
       </c>
     </row>
     <row r="25">
@@ -1308,7 +1312,7 @@
         <v>-0.5879490294397501</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.4073072045052107</v>
+        <v>-0.4073072045052108</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.224799112468118</v>
@@ -1331,22 +1335,22 @@
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>-0.6218105549613526</v>
+        <v>-0.6453662099603698</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.8642900660062144</v>
+        <v>-0.8523334057918122</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.6926983074070371</v>
+        <v>-0.6927854891375972</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.6418205846531381</v>
+        <v>-0.6442293778673668</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.7935327916834296</v>
+        <v>-0.8014359524629855</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.6629390466135375</v>
+        <v>-0.6802784022980537</v>
       </c>
     </row>
     <row r="27">
@@ -1360,22 +1364,22 @@
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>1.050218312449055</v>
+        <v>0.7940151489894557</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.02841275266650691</v>
+        <v>0.04611481343778904</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2362527512006509</v>
+        <v>0.2287881856809444</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5624547428078146</v>
+        <v>0.6641690387100172</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1986475622414663</v>
+        <v>0.2076758706015281</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.2689697287020679</v>
+        <v>0.3518487743414369</v>
       </c>
     </row>
     <row r="28">
@@ -1425,31 +1429,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.648028320962097</v>
+        <v>-3.787118287470449</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.466520585658591</v>
+        <v>-3.514351293934098</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-3.183343821966683</v>
+        <v>-2.895793290281142</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-4.367499544609424</v>
+        <v>-4.035245901636076</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-7.295630699258374</v>
+        <v>-6.900335847967964</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-5.315532679132066</v>
+        <v>-5.251416148246959</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-3.269423277232058</v>
+        <v>-2.936567397707712</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-4.699009953585175</v>
+        <v>-4.852439583543036</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-3.685689545400477</v>
+        <v>-3.655625643341816</v>
       </c>
     </row>
     <row r="30">
@@ -1460,31 +1464,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.58716183415157</v>
+        <v>-0.5490611871941727</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.1406312720703702</v>
+        <v>-0.1252453877706591</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.263841352471121</v>
+        <v>0.2970055807133126</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.32384140022154</v>
+        <v>3.535620997258144</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-0.3439215467331829</v>
+        <v>-0.3400681922562804</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.109519137638787</v>
+        <v>1.326114709412129</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.9989783024726087</v>
+        <v>0.9364006576027811</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-0.7669223818546074</v>
+        <v>-0.7776166856181789</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.02911510005192357</v>
+        <v>0.03786449455442049</v>
       </c>
     </row>
     <row r="31">
@@ -1501,7 +1505,7 @@
         <v>-0.7677138515767333</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.543635905355749</v>
+        <v>-0.5436359053557491</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.05420777132092412</v>
@@ -1536,25 +1540,25 @@
         <v>-1</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.8616467603105384</v>
+        <v>-0.8698504301647321</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.4174536603926399</v>
+        <v>-0.3955940428375199</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.6773130550708986</v>
+        <v>-0.6819839528098869</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.4800364963084093</v>
+        <v>-0.4910334684416774</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.5058025453147948</v>
+        <v>-0.4643028986666157</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.7103823575772544</v>
+        <v>-0.7160575436612975</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.5391791158574855</v>
+        <v>-0.5371618276820457</v>
       </c>
     </row>
     <row r="33">
@@ -1565,31 +1569,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1503437807293001</v>
+        <v>0.6957130912661219</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.4218461479826947</v>
+        <v>0.313747977424384</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.6272714401389956</v>
+        <v>0.5744229753148202</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.5159889593734227</v>
+        <v>0.5314997103966818</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.02120302026151722</v>
+        <v>-0.005566389750668802</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1855933312148768</v>
+        <v>0.2305618303992447</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2778737976762951</v>
+        <v>0.2167878214694142</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.1530465693390729</v>
+        <v>-0.1517010155235664</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.02787533600018987</v>
+        <v>0.01759861328889326</v>
       </c>
     </row>
     <row r="34">
@@ -1639,31 +1643,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-4.690752515475326</v>
+        <v>-4.93653426661569</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-5.094504455756141</v>
+        <v>-5.066381461508695</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-3.716217555815464</v>
+        <v>-3.567428437069282</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-7.416909926287405</v>
+        <v>-7.984470366815274</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-5.252806804829271</v>
+        <v>-5.210143919462577</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-5.798640365263038</v>
+        <v>-6.044775349038545</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-5.402639393469244</v>
+        <v>-5.525124184858172</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-4.217991959087683</v>
+        <v>-4.290569672373054</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-4.264305983016639</v>
+        <v>-3.92474510886761</v>
       </c>
     </row>
     <row r="36">
@@ -1674,31 +1678,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>-0.9110507288253581</v>
+        <v>-0.9081162027990477</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-1.495178025175324</v>
+        <v>-1.315091571429668</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>0.547581935652568</v>
+        <v>0.692333434759079</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1.83016243718524</v>
+        <v>1.240036442649201</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>4.534844173349688</v>
+        <v>4.155552303141969</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>2.197092608799593</v>
+        <v>2.330947899431786</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>0.06926321716934147</v>
+        <v>-0.1464699393213368</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>1.384583918182141</v>
+        <v>1.053140999966347</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>0.7286530171871402</v>
+        <v>0.7247526615427379</v>
       </c>
     </row>
     <row r="37">
@@ -1748,25 +1752,25 @@
       </c>
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="n">
-        <v>-0.7945193038989317</v>
+        <v>-0.7735861479807976</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.5196002682830254</v>
+        <v>-0.533837885736541</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.3570574949000995</v>
+        <v>-0.3702530022521038</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.3956876242149961</v>
+        <v>-0.4101086599127184</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.5845698615030063</v>
+        <v>-0.608781295421104</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.4496976464817017</v>
+        <v>-0.4692347338733618</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.4461699637223281</v>
+        <v>-0.4196405402058627</v>
       </c>
     </row>
     <row r="39">
@@ -1777,29 +1781,29 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>-0.1439842940992063</v>
+        <v>0.07749188563696303</v>
       </c>
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="n">
-        <v>0.5624898586428163</v>
+        <v>0.6773355000876242</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.2147471631093552</v>
+        <v>0.1442884039473077</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.4685694209456491</v>
+        <v>0.4248278274738942</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2448344516825122</v>
+        <v>0.2529631377969396</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.03839214047580305</v>
+        <v>-0.005341394011655958</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.2538923734007584</v>
+        <v>0.169246544243702</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.1361573019750414</v>
+        <v>0.1220794060839711</v>
       </c>
     </row>
     <row r="40">
@@ -1829,7 +1833,7 @@
         <v>-2.519134386259808</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>2.831245127478146</v>
+        <v>2.831245127478141</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>-1.050928166563966</v>
@@ -1838,7 +1842,7 @@
         <v>-2.457497513871391</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>0.8235303306333583</v>
+        <v>0.8235303306333555</v>
       </c>
     </row>
     <row r="41">
@@ -1849,31 +1853,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-6.924534077845827</v>
+        <v>-6.859903100511666</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-5.774907003885009</v>
+        <v>-5.419963522014762</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-5.429261663450543</v>
+        <v>-5.46191621721367</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-4.882344312930891</v>
+        <v>-4.800226424874947</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-7.466524149790297</v>
+        <v>-7.236234865664932</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-1.800403632896476</v>
+        <v>-1.999121271618764</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-4.966335772403627</v>
+        <v>-4.559876522010212</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-5.970908176914437</v>
+        <v>-6.194577184764354</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-2.448178075065152</v>
+        <v>-2.711276034723497</v>
       </c>
     </row>
     <row r="42">
@@ -1884,31 +1888,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-0.00589867373142406</v>
+        <v>-0.1020263557501982</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.8883746974105502</v>
+        <v>1.182055109865543</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.194291366798368</v>
+        <v>1.013599441385693</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>5.585722784755173</v>
+        <v>6.346190444073634</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>2.894684452147698</v>
+        <v>3.16101825774513</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>7.11815694384062</v>
+        <v>7.323518203405359</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>2.304989425454306</v>
+        <v>2.443772064047176</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>1.118755512186715</v>
+        <v>0.8595041030777603</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>3.649273876727039</v>
+        <v>3.81318011645204</v>
       </c>
     </row>
     <row r="43">
@@ -1925,7 +1929,7 @@
         <v>-0.472997812473484</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.3894039587930143</v>
+        <v>-0.3894039587930145</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.03981178945537298</v>
@@ -1934,7 +1938,7 @@
         <v>-0.1856518986153843</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2086534312058983</v>
+        <v>0.2086534312058979</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.1033874193692155</v>
@@ -1943,7 +1947,7 @@
         <v>-0.2417618388668066</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.08101664639443024</v>
+        <v>0.08101664639442996</v>
       </c>
     </row>
     <row r="44">
@@ -1957,28 +1961,28 @@
         <v>-1</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.8479150062760247</v>
+        <v>-0.8160381032406434</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.7353229330409199</v>
+        <v>-0.7530351656057622</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.2996582066276137</v>
+        <v>-0.2891869120707973</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.4625914484662696</v>
+        <v>-0.4565174827321842</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.1041152219194763</v>
+        <v>-0.1187215886979672</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.3994442195094903</v>
+        <v>-0.3871971205340379</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.4826767272946624</v>
+        <v>-0.5061718757240168</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.1936538976892995</v>
+        <v>-0.2116588709112779</v>
       </c>
     </row>
     <row r="45">
@@ -1989,31 +1993,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.412485182853858</v>
+        <v>0.5311237401336023</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.4495649152959937</v>
+        <v>0.71901080463116</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.552381463923306</v>
+        <v>0.4363011163932121</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.5078005555673443</v>
+        <v>0.5889956489862034</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.2538183649050728</v>
+        <v>0.302223721202747</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.7115816177550901</v>
+        <v>0.701399519763007</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2844560751166667</v>
+        <v>0.2954598809173424</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.1329101439321221</v>
+        <v>0.1303877685080559</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.4395793877541034</v>
+        <v>0.4804734048158475</v>
       </c>
     </row>
     <row r="46">
@@ -2043,7 +2047,7 @@
         <v>-0.8530677712089728</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>0.452643035199142</v>
+        <v>0.4526430351991406</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>-0.560299760274606</v>
@@ -2052,7 +2056,7 @@
         <v>-0.7609651071093577</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>0.156000542337072</v>
+        <v>0.1560005423370724</v>
       </c>
     </row>
     <row r="47">
@@ -2063,31 +2067,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-1.248147357041868</v>
+        <v>-1.254345511414412</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-1.135229964147827</v>
+        <v>-1.132285380335392</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-0.6518341314529257</v>
+        <v>-0.6703880529199482</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-1.236916918945083</v>
+        <v>-1.24490245802353</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-1.795097399612938</v>
+        <v>-1.728176839188395</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-0.4593069574716102</v>
+        <v>-0.3817791864945256</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-1.110614065600535</v>
+        <v>-1.131501953107544</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-1.33694743826209</v>
+        <v>-1.235665552666104</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-0.3554443746599034</v>
+        <v>-0.3384194778159262</v>
       </c>
     </row>
     <row r="48">
@@ -2098,31 +2102,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-0.4662084902176323</v>
+        <v>-0.4841998286087606</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-0.3428123066210814</v>
+        <v>-0.2895443075241938</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>0.3372477768248852</v>
+        <v>0.2959746811151037</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>0.7561408590920075</v>
+        <v>0.6680500137679429</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>0.1125461024655733</v>
+        <v>0.2002189481789115</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>1.263569785532912</v>
+        <v>1.401004881581855</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-0.01861207164146777</v>
+        <v>-0.05897857126914956</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-0.2384545863826545</v>
+        <v>-0.1988190255617947</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>0.6311467615040696</v>
+        <v>0.6614273749871672</v>
       </c>
     </row>
     <row r="49">
@@ -2148,7 +2152,7 @@
         <v>-0.1984072443121947</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1052761108811948</v>
+        <v>0.1052761108811944</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.2081991187634825</v>
@@ -2157,7 +2161,7 @@
         <v>-0.2827633990638847</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.05796749837138162</v>
+        <v>0.05796749837138175</v>
       </c>
     </row>
     <row r="50">
@@ -2168,31 +2172,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.9365830477800893</v>
+        <v>-0.9380489670345287</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.8373829252600938</v>
+        <v>-0.8258758387833767</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.5133171104815935</v>
+        <v>-0.5219807646754945</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.254307432369343</v>
+        <v>-0.2510457878898646</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.3676184519711328</v>
+        <v>-0.3664898047614636</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.09512901114693105</v>
+        <v>-0.07699519426319999</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.3675016329342141</v>
+        <v>-0.3780221483190767</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.4397714924802041</v>
+        <v>-0.4097403416191303</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.1214854472160031</v>
+        <v>-0.1149029569487331</v>
       </c>
     </row>
     <row r="51">
@@ -2203,31 +2207,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.5047049242455754</v>
+        <v>-0.4894289985497238</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.3840972558595646</v>
+        <v>-0.3273761060603413</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.4778049996409456</v>
+        <v>0.4110790475270782</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.2144933328463896</v>
+        <v>0.1780692457251948</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.03995216229509056</v>
+        <v>0.0552282410043035</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.3370706063691195</v>
+        <v>0.3775326138639648</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.006041208728845572</v>
+        <v>-0.02327759572301701</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.08728391920755529</v>
+        <v>-0.08185514510149197</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.2595349806750615</v>
+        <v>0.2815878104117301</v>
       </c>
     </row>
     <row r="52">
